--- a/src/Gardener.Entry/wwwroot/DB Locale/Sys/Sys_User.xlsx
+++ b/src/Gardener.Entry/wwwroot/DB Locale/Sys/Sys_User.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\GitHub\Garden - Change\src\Gardener.Entry\wwwroot\Database Locale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\GitHub\Github-Fork\Gardener\src\Gardener.Entry\wwwroot\DB Locale\Sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD32A2B-802B-45D0-9DFE-E5ED2706F5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A649E3-1076-4F46-85DA-9D9813BA7EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>ValueEN</t>
   </si>
   <si>
-    <t>ValueCN</t>
+    <t>ValueCH</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
